--- a/tyden4/ctvrtek/data_mo.xlsx
+++ b/tyden4/ctvrtek/data_mo.xlsx
@@ -1011,8 +1011,8 @@
   </sheetPr>
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G55" activeCellId="0" sqref="G55"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J51" activeCellId="0" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1681,7 +1681,6 @@
         <v>154.6</v>
       </c>
       <c r="C60" s="0" t="n">
-        <f aca="false">1.006*C59</f>
         <v>83444.5814</v>
       </c>
     </row>
@@ -1693,7 +1692,6 @@
         <v>155.1</v>
       </c>
       <c r="C61" s="0" t="n">
-        <f aca="false">1.006*C60</f>
         <v>83945.2488884</v>
       </c>
     </row>
@@ -1705,7 +1703,6 @@
         <v>155.1</v>
       </c>
       <c r="C62" s="0" t="n">
-        <f aca="false">1.006*C61</f>
         <v>84448.9203817304</v>
       </c>
     </row>
@@ -1717,7 +1714,6 @@
         <v>157.2</v>
       </c>
       <c r="C63" s="0" t="n">
-        <f aca="false">1.006*C62</f>
         <v>84955.6139040208</v>
       </c>
     </row>
